--- a/Dekauto.Export.Service/card_template.xlsx
+++ b/Dekauto.Export.Service/card_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itmedia pc\source\repos\Dekauto.Export.Service\Dekauto.Export.Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE11DD01-33E0-4A7B-B1B2-47F52982C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4333D1B-20ED-48D2-BADA-72B4FF7448B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="450">
   <si>
     <t>Фамилия:</t>
   </si>
@@ -2651,7 +2651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3074,6 +3074,215 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3084,18 +3293,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3107,208 +3304,107 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3319,110 +3415,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3839,7 +3842,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3856,70 +3859,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238"/>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
+      <c r="A1" s="251"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="252" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="242" t="s">
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="255" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="242"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3930,30 +3933,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="142"/>
-      <c r="C6" s="244" t="s">
+      <c r="C6" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="244" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
     </row>
     <row r="7" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="246"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
     </row>
     <row r="8" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
@@ -3974,16 +3977,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="120"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
       <c r="F9" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:10" s="66" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
@@ -3999,23 +4002,23 @@
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="248" t="s">
+      <c r="H10" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="248"/>
-      <c r="J10" s="248"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="239"/>
     </row>
     <row r="11" spans="1:10" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="249"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
+      <c r="A11" s="240"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:10" s="66" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
@@ -4038,23 +4041,23 @@
         <v>22</v>
       </c>
       <c r="B13" s="51"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="250"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
     </row>
     <row r="14" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="242" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
@@ -4063,40 +4066,40 @@
         <v>23</v>
       </c>
       <c r="B15" s="124"/>
-      <c r="C15" s="244" t="s">
+      <c r="C15" s="214" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
     </row>
     <row r="16" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="246"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="201" t="s">
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="201"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
     </row>
     <row r="17" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="251"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="95" t="s">
         <v>26</v>
       </c>
@@ -4111,13 +4114,13 @@
       <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" s="66" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="242" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -4129,40 +4132,40 @@
         <v>23</v>
       </c>
       <c r="B19" s="124"/>
-      <c r="C19" s="244" t="s">
+      <c r="C19" s="214" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="244"/>
-      <c r="E19" s="244"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
       <c r="F19" s="60"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
     </row>
     <row r="20" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="261" t="s">
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="261"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="215"/>
     </row>
     <row r="21" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="56" t="s">
         <v>26</v>
       </c>
@@ -4177,11 +4180,11 @@
       <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="274"/>
-      <c r="C22" s="274"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
       <c r="D22" s="148" t="s">
         <v>15</v>
       </c>
@@ -4199,163 +4202,163 @@
       <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="201"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
+      <c r="A24" s="209"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
     </row>
     <row r="25" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
     </row>
     <row r="26" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="271"/>
-      <c r="C26" s="271"/>
-      <c r="D26" s="271"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="271"/>
-      <c r="G26" s="271"/>
-      <c r="H26" s="271"/>
-      <c r="I26" s="271"/>
-      <c r="J26" s="271"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
     </row>
     <row r="27" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="271"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
     </row>
     <row r="28" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="201"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
-      <c r="G28" s="218"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="218"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="224"/>
     </row>
     <row r="29" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="225"/>
     </row>
     <row r="30" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="271"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="271"/>
-      <c r="G30" s="271"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="271"/>
-      <c r="J30" s="271"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
     </row>
     <row r="31" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="263"/>
-      <c r="C31" s="263"/>
-      <c r="D31" s="263"/>
-      <c r="E31" s="263"/>
-      <c r="F31" s="263"/>
-      <c r="G31" s="263"/>
-      <c r="H31" s="263"/>
-      <c r="I31" s="263"/>
-      <c r="J31" s="263"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
     </row>
     <row r="32" spans="1:10" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="207" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="264" t="s">
+      <c r="A33" s="232" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="264"/>
-      <c r="I33" s="264"/>
-      <c r="J33" s="264"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="232"/>
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="150"/>
       <c r="B34" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="D34" s="233"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
     </row>
     <row r="35" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="233" t="s">
         <v>376</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="72"/>
       <c r="F35" s="68"/>
-      <c r="G35" s="272" t="s">
+      <c r="G35" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="272"/>
-      <c r="I35" s="273"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="219"/>
       <c r="J35" s="178">
         <f>E37+E38+E39</f>
         <v>0</v>
@@ -4363,11 +4366,11 @@
     </row>
     <row r="36" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74"/>
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="277" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="215"/>
-      <c r="D36" s="215"/>
+      <c r="C36" s="277"/>
+      <c r="D36" s="277"/>
       <c r="E36" s="115" t="s">
         <v>371</v>
       </c>
@@ -4383,39 +4386,45 @@
       <c r="A37" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="265"/>
-      <c r="C37" s="265"/>
-      <c r="D37" s="265"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="152"/>
-      <c r="F37" s="269"/>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
+      <c r="F37" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="G37" s="222"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="222"/>
+      <c r="J37" s="222"/>
     </row>
     <row r="38" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="73"/>
-      <c r="B38" s="265"/>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="152"/>
-      <c r="F38" s="269"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="270"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="270"/>
+      <c r="F38" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="G38" s="222"/>
+      <c r="H38" s="222"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="222"/>
     </row>
     <row r="39" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
-      <c r="B39" s="265"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="265"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
       <c r="E39" s="152"/>
-      <c r="F39" s="269"/>
-      <c r="G39" s="270"/>
-      <c r="H39" s="270"/>
-      <c r="I39" s="270"/>
-      <c r="J39" s="270"/>
+      <c r="F39" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
     </row>
     <row r="40" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="60" t="s">
@@ -4423,32 +4432,32 @@
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="261" t="s">
+      <c r="D40" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="261"/>
-      <c r="F40" s="261"/>
-      <c r="G40" s="261"/>
-      <c r="H40" s="261"/>
-      <c r="I40" s="261"/>
-      <c r="J40" s="261"/>
+      <c r="E40" s="217"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="217"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
     </row>
     <row r="41" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="258" t="s">
+      <c r="A41" s="250" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="258"/>
-      <c r="C41" s="258"/>
-      <c r="D41" s="201" t="str">
+      <c r="B41" s="250"/>
+      <c r="C41" s="250"/>
+      <c r="D41" s="209" t="str">
         <f>IF(D40="среднее общее образование","о среднем общем образовании","о среднем профессиональном образовании")</f>
         <v>о среднем общем образовании</v>
       </c>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="209"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
@@ -4460,65 +4469,65 @@
       <c r="C42" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
       <c r="F42" s="109" t="s">
         <v>360</v>
       </c>
       <c r="G42" s="109"/>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="233"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="59"/>
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="220" t="s">
+      <c r="A43" s="236" t="s">
         <v>435</v>
       </c>
-      <c r="B43" s="220"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="220"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="236"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="236"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="236"/>
     </row>
     <row r="44" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="267" t="s">
+      <c r="A44" s="234" t="s">
         <v>353</v>
       </c>
-      <c r="B44" s="267"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="266"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="266"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="206"/>
+      <c r="H44" s="206"/>
+      <c r="I44" s="206"/>
+      <c r="J44" s="206"/>
     </row>
     <row r="45" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="205" t="s">
         <v>354</v>
       </c>
-      <c r="B45" s="217"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="266"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="266"/>
-      <c r="H45" s="266"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
+      <c r="B45" s="205"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="206"/>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="257" t="s">
+      <c r="A46" s="249" t="s">
         <v>355</v>
       </c>
-      <c r="B46" s="257"/>
+      <c r="B46" s="249"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -4533,14 +4542,14 @@
         <v>32</v>
       </c>
       <c r="B47" s="52"/>
-      <c r="C47" s="268"/>
-      <c r="D47" s="268"/>
-      <c r="E47" s="268"/>
-      <c r="F47" s="268"/>
-      <c r="G47" s="268"/>
-      <c r="H47" s="268"/>
-      <c r="I47" s="268"/>
-      <c r="J47" s="268"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
     </row>
     <row r="48" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
@@ -4562,29 +4571,29 @@
       <c r="C49" s="137"/>
       <c r="D49" s="137"/>
       <c r="E49" s="137"/>
-      <c r="F49" s="228"/>
-      <c r="G49" s="228"/>
-      <c r="H49" s="228"/>
-      <c r="I49" s="228"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
       <c r="J49" s="180"/>
     </row>
     <row r="50" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="229">
+      <c r="A50" s="211">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="B50" s="229"/>
-      <c r="C50" s="229">
+      <c r="B50" s="211"/>
+      <c r="C50" s="211">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="229"/>
-      <c r="E50" s="229" t="str">
+      <c r="D50" s="211"/>
+      <c r="E50" s="211" t="str">
         <f>IF(B5&lt;&gt;"",B5,"")</f>
         <v/>
       </c>
-      <c r="F50" s="229"/>
-      <c r="G50" s="229"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="138"/>
       <c r="I50" s="138"/>
       <c r="J50" s="138"/>
@@ -4596,39 +4605,39 @@
       <c r="B51" s="51"/>
     </row>
     <row r="52" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="262" t="s">
+      <c r="A52" s="230" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="262"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="277"/>
-      <c r="F52" s="277"/>
-      <c r="G52" s="277"/>
-      <c r="H52" s="277"/>
-      <c r="I52" s="277"/>
-      <c r="J52" s="277"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="230"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="212"/>
+      <c r="G52" s="212"/>
+      <c r="H52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="212"/>
     </row>
     <row r="53" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="259" t="s">
+      <c r="A53" s="228" t="s">
         <v>357</v>
       </c>
-      <c r="B53" s="259"/>
-      <c r="C53" s="259"/>
-      <c r="D53" s="260"/>
-      <c r="E53" s="260"/>
-      <c r="F53" s="260"/>
-      <c r="G53" s="260"/>
-      <c r="H53" s="260"/>
-      <c r="I53" s="260"/>
-      <c r="J53" s="260"/>
+      <c r="B53" s="228"/>
+      <c r="C53" s="228"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
+      <c r="F53" s="229"/>
+      <c r="G53" s="229"/>
+      <c r="H53" s="229"/>
+      <c r="I53" s="229"/>
+      <c r="J53" s="229"/>
     </row>
     <row r="54" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="276" t="s">
+      <c r="A54" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="276"/>
-      <c r="C54" s="276"/>
+      <c r="B54" s="201"/>
+      <c r="C54" s="201"/>
       <c r="D54" s="202"/>
       <c r="E54" s="202"/>
       <c r="F54" s="202"/>
@@ -4638,20 +4647,20 @@
       <c r="J54" s="202"/>
     </row>
     <row r="55" spans="1:10" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="219"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
+      <c r="B55" s="207"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="207"/>
     </row>
     <row r="56" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="213" t="s">
+      <c r="A56" s="203" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="213"/>
-      <c r="D56" s="261"/>
-      <c r="E56" s="261"/>
+      <c r="B56" s="203"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="217"/>
       <c r="F56" s="56" t="s">
         <v>358</v>
       </c>
@@ -4663,10 +4672,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="211" t="s">
+      <c r="A57" s="204" t="s">
         <v>238</v>
       </c>
-      <c r="B57" s="211"/>
+      <c r="B57" s="204"/>
       <c r="C57" s="56"/>
       <c r="D57" s="155" t="s">
         <v>15</v>
@@ -4679,24 +4688,24 @@
       <c r="J57" s="52"/>
     </row>
     <row r="58" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="213" t="s">
+      <c r="A58" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="213"/>
+      <c r="B58" s="203"/>
       <c r="C58" s="60"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="246"/>
-      <c r="J58" s="246"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="208"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="208"/>
+      <c r="I58" s="208"/>
+      <c r="J58" s="208"/>
     </row>
     <row r="59" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="213" t="s">
+      <c r="A59" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="213"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="60"/>
       <c r="D59" s="156" t="s">
         <v>15</v>
@@ -4709,70 +4718,70 @@
       <c r="J59" s="52"/>
     </row>
     <row r="60" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="213" t="s">
+      <c r="A60" s="203" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="213"/>
+      <c r="B60" s="203"/>
       <c r="C60" s="60"/>
-      <c r="D60" s="210"/>
-      <c r="E60" s="210"/>
-      <c r="F60" s="210"/>
-      <c r="G60" s="210"/>
-      <c r="H60" s="210"/>
-      <c r="I60" s="210"/>
-      <c r="J60" s="210"/>
+      <c r="D60" s="276"/>
+      <c r="E60" s="276"/>
+      <c r="F60" s="276"/>
+      <c r="G60" s="276"/>
+      <c r="H60" s="276"/>
+      <c r="I60" s="276"/>
+      <c r="J60" s="276"/>
     </row>
     <row r="61" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="211" t="s">
+      <c r="A61" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="211"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="210"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="210"/>
+      <c r="B61" s="204"/>
+      <c r="C61" s="204"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="276"/>
+      <c r="F61" s="276"/>
+      <c r="G61" s="276"/>
+      <c r="H61" s="276"/>
+      <c r="I61" s="276"/>
+      <c r="J61" s="276"/>
     </row>
     <row r="62" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="211" t="s">
+      <c r="A62" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="211"/>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="212"/>
-      <c r="F62" s="212"/>
-      <c r="G62" s="212"/>
-      <c r="H62" s="212"/>
-      <c r="I62" s="212"/>
-      <c r="J62" s="212"/>
+      <c r="B62" s="204"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="215"/>
+      <c r="F62" s="215"/>
+      <c r="G62" s="215"/>
+      <c r="H62" s="215"/>
+      <c r="I62" s="215"/>
+      <c r="J62" s="215"/>
     </row>
     <row r="63" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="275" t="s">
+      <c r="A63" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="275"/>
-      <c r="C63" s="275"/>
-      <c r="D63" s="275"/>
-      <c r="E63" s="275"/>
-      <c r="F63" s="275"/>
-      <c r="G63" s="275"/>
-      <c r="H63" s="275"/>
-      <c r="I63" s="275"/>
-      <c r="J63" s="275"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="227"/>
+      <c r="I63" s="227"/>
+      <c r="J63" s="227"/>
     </row>
     <row r="64" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="B64" s="201"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="201"/>
-      <c r="F64" s="201"/>
+      <c r="B64" s="209"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
     </row>
     <row r="65" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="110" t="s">
@@ -4782,15 +4791,15 @@
       <c r="C65" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="199"/>
       <c r="F65" s="109" t="s">
         <v>360</v>
       </c>
       <c r="G65" s="109"/>
-      <c r="H65" s="233"/>
-      <c r="I65" s="233"/>
-      <c r="J65" s="233"/>
+      <c r="H65" s="200"/>
+      <c r="I65" s="200"/>
+      <c r="J65" s="200"/>
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
@@ -4801,48 +4810,48 @@
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="234"/>
-      <c r="J66" s="234"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="199"/>
+      <c r="I66" s="199"/>
+      <c r="J66" s="199"/>
     </row>
     <row r="67" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="216" t="s">
+      <c r="A67" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="217"/>
-      <c r="C67" s="230"/>
-      <c r="D67" s="230"/>
-      <c r="E67" s="230"/>
-      <c r="F67" s="230"/>
-      <c r="G67" s="230"/>
-      <c r="H67" s="230"/>
-      <c r="I67" s="230"/>
-      <c r="J67" s="230"/>
+      <c r="B67" s="205"/>
+      <c r="C67" s="257"/>
+      <c r="D67" s="257"/>
+      <c r="E67" s="257"/>
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="257"/>
+      <c r="I67" s="257"/>
+      <c r="J67" s="257"/>
     </row>
     <row r="68" spans="1:12" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="216" t="s">
+      <c r="A68" s="226" t="s">
         <v>316</v>
       </c>
-      <c r="B68" s="216"/>
-      <c r="C68" s="209"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
-      <c r="F68" s="209"/>
-      <c r="G68" s="209"/>
-      <c r="H68" s="209"/>
-      <c r="I68" s="209"/>
-      <c r="J68" s="209"/>
+      <c r="B68" s="226"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="265"/>
+      <c r="E68" s="265"/>
+      <c r="F68" s="265"/>
+      <c r="G68" s="265"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
     </row>
     <row r="69" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="204" t="s">
+      <c r="A69" s="233" t="s">
         <v>379</v>
       </c>
-      <c r="B69" s="204"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="272"/>
+      <c r="D69" s="272"/>
       <c r="E69" s="108"/>
       <c r="F69" s="108"/>
       <c r="G69" s="108"/>
@@ -4856,9 +4865,9 @@
       </c>
       <c r="B70" s="117"/>
       <c r="C70" s="106"/>
-      <c r="D70" s="206"/>
-      <c r="E70" s="206"/>
-      <c r="F70" s="206"/>
+      <c r="D70" s="273"/>
+      <c r="E70" s="273"/>
+      <c r="F70" s="273"/>
     </row>
     <row r="71" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="177" t="s">
@@ -4875,10 +4884,10 @@
       <c r="J71" s="88"/>
     </row>
     <row r="72" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="232" t="s">
+      <c r="A72" s="260" t="s">
         <v>363</v>
       </c>
-      <c r="B72" s="232"/>
+      <c r="B72" s="260"/>
       <c r="C72" s="159"/>
       <c r="D72" s="60" t="s">
         <v>364</v>
@@ -4892,44 +4901,44 @@
       <c r="J72" s="157"/>
     </row>
     <row r="73" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="232" t="s">
+      <c r="A73" s="260" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="232"/>
+      <c r="B73" s="260"/>
       <c r="C73" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="233"/>
-      <c r="E73" s="233"/>
+      <c r="D73" s="200"/>
+      <c r="E73" s="200"/>
       <c r="F73" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="234"/>
-      <c r="H73" s="234"/>
-      <c r="I73" s="234"/>
-      <c r="J73" s="234"/>
+      <c r="G73" s="199"/>
+      <c r="H73" s="199"/>
+      <c r="I73" s="199"/>
+      <c r="J73" s="199"/>
     </row>
     <row r="74" spans="1:12" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="112" t="s">
         <v>367</v>
       </c>
       <c r="B74" s="112"/>
-      <c r="C74" s="235"/>
-      <c r="D74" s="235"/>
-      <c r="E74" s="235"/>
-      <c r="F74" s="235"/>
-      <c r="G74" s="235"/>
-      <c r="H74" s="235"/>
-      <c r="I74" s="235"/>
-      <c r="J74" s="235"/>
+      <c r="C74" s="261"/>
+      <c r="D74" s="261"/>
+      <c r="E74" s="261"/>
+      <c r="F74" s="261"/>
+      <c r="G74" s="261"/>
+      <c r="H74" s="261"/>
+      <c r="I74" s="261"/>
+      <c r="J74" s="261"/>
     </row>
     <row r="75" spans="1:12" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="252" t="s">
+      <c r="A75" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="252"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="252"/>
+      <c r="B75" s="244"/>
+      <c r="C75" s="244"/>
+      <c r="D75" s="244"/>
       <c r="E75" s="90"/>
       <c r="F75" s="90"/>
       <c r="G75" s="90"/>
@@ -4942,85 +4951,85 @@
         <v>317</v>
       </c>
       <c r="B76" s="89"/>
-      <c r="C76" s="253" t="s">
+      <c r="C76" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="253"/>
-      <c r="E76" s="253"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="89" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="89"/>
-      <c r="H76" s="255" t="s">
+      <c r="H76" s="247" t="s">
         <v>89</v>
       </c>
-      <c r="I76" s="255"/>
-      <c r="J76" s="255"/>
+      <c r="I76" s="247"/>
+      <c r="J76" s="247"/>
     </row>
     <row r="77" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="254"/>
-      <c r="C77" s="254"/>
-      <c r="D77" s="254"/>
-      <c r="E77" s="254"/>
-      <c r="F77" s="254"/>
-      <c r="G77" s="254"/>
-      <c r="H77" s="254"/>
-      <c r="I77" s="254"/>
-      <c r="J77" s="254"/>
+      <c r="B77" s="246"/>
+      <c r="C77" s="246"/>
+      <c r="D77" s="246"/>
+      <c r="E77" s="246"/>
+      <c r="F77" s="246"/>
+      <c r="G77" s="246"/>
+      <c r="H77" s="246"/>
+      <c r="I77" s="246"/>
+      <c r="J77" s="246"/>
     </row>
     <row r="78" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="216" t="s">
+      <c r="A78" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="B78" s="217"/>
-      <c r="C78" s="256"/>
-      <c r="D78" s="256"/>
-      <c r="E78" s="256"/>
-      <c r="F78" s="256"/>
-      <c r="G78" s="256"/>
-      <c r="H78" s="256"/>
-      <c r="I78" s="256"/>
-      <c r="J78" s="256"/>
+      <c r="B78" s="205"/>
+      <c r="C78" s="248"/>
+      <c r="D78" s="248"/>
+      <c r="E78" s="248"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="248"/>
+      <c r="H78" s="248"/>
+      <c r="I78" s="248"/>
+      <c r="J78" s="248"/>
     </row>
     <row r="79" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="216" t="s">
+      <c r="A79" s="226" t="s">
         <v>316</v>
       </c>
-      <c r="B79" s="216"/>
-      <c r="C79" s="209"/>
-      <c r="D79" s="209"/>
-      <c r="E79" s="209"/>
-      <c r="F79" s="209"/>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
-      <c r="I79" s="209"/>
-      <c r="J79" s="209"/>
+      <c r="B79" s="226"/>
+      <c r="C79" s="265"/>
+      <c r="D79" s="265"/>
+      <c r="E79" s="265"/>
+      <c r="F79" s="265"/>
+      <c r="G79" s="265"/>
+      <c r="H79" s="265"/>
+      <c r="I79" s="265"/>
+      <c r="J79" s="265"/>
     </row>
     <row r="80" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="216" t="s">
+      <c r="A80" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B80" s="216"/>
-      <c r="C80" s="209" t="s">
+      <c r="B80" s="226"/>
+      <c r="C80" s="265" t="s">
         <v>323</v>
       </c>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
-      <c r="F80" s="209"/>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
-      <c r="I80" s="209"/>
-      <c r="J80" s="209"/>
+      <c r="D80" s="265"/>
+      <c r="E80" s="265"/>
+      <c r="F80" s="265"/>
+      <c r="G80" s="265"/>
+      <c r="H80" s="265"/>
+      <c r="I80" s="265"/>
+      <c r="J80" s="265"/>
     </row>
     <row r="81" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="236"/>
-      <c r="C81" s="236"/>
+      <c r="B81" s="263"/>
+      <c r="C81" s="263"/>
       <c r="D81" s="89" t="s">
         <v>164</v>
       </c>
@@ -5034,10 +5043,10 @@
       <c r="J81" s="127"/>
     </row>
     <row r="82" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="217" t="s">
+      <c r="A82" s="205" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="217"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="71"/>
       <c r="D82" s="89" t="s">
         <v>328</v>
@@ -5050,10 +5059,10 @@
       <c r="J82" s="89"/>
     </row>
     <row r="83" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="217" t="s">
+      <c r="A83" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="B83" s="217"/>
+      <c r="B83" s="205"/>
       <c r="C83" s="71"/>
       <c r="D83" s="89" t="s">
         <v>329</v>
@@ -5066,31 +5075,31 @@
       <c r="J83" s="90"/>
     </row>
     <row r="84" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="208"/>
-      <c r="C84" s="209"/>
-      <c r="D84" s="209"/>
+      <c r="B84" s="275"/>
+      <c r="C84" s="265"/>
+      <c r="D84" s="265"/>
       <c r="E84" s="89" t="s">
         <v>330</v>
       </c>
       <c r="F84" s="89"/>
-      <c r="G84" s="237"/>
-      <c r="H84" s="237"/>
-      <c r="I84" s="237"/>
-      <c r="J84" s="237"/>
+      <c r="G84" s="264"/>
+      <c r="H84" s="264"/>
+      <c r="I84" s="264"/>
+      <c r="J84" s="264"/>
     </row>
     <row r="85" spans="1:10" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="89" t="s">
         <v>333</v>
       </c>
       <c r="B85" s="89"/>
-      <c r="C85" s="209" t="s">
+      <c r="C85" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="209"/>
-      <c r="E85" s="209"/>
+      <c r="D85" s="265"/>
+      <c r="E85" s="265"/>
       <c r="F85" s="70" t="s">
         <v>171</v>
       </c>
@@ -5098,22 +5107,22 @@
       <c r="H85" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="I85" s="225"/>
-      <c r="J85" s="225"/>
+      <c r="I85" s="266"/>
+      <c r="J85" s="266"/>
     </row>
     <row r="86" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="226" t="s">
+      <c r="A86" s="267" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="226"/>
-      <c r="C86" s="227"/>
-      <c r="D86" s="227"/>
-      <c r="E86" s="227"/>
-      <c r="F86" s="227"/>
-      <c r="G86" s="227"/>
-      <c r="H86" s="227"/>
-      <c r="I86" s="227"/>
-      <c r="J86" s="227"/>
+      <c r="B86" s="267"/>
+      <c r="C86" s="268"/>
+      <c r="D86" s="268"/>
+      <c r="E86" s="268"/>
+      <c r="F86" s="268"/>
+      <c r="G86" s="268"/>
+      <c r="H86" s="268"/>
+      <c r="I86" s="268"/>
+      <c r="J86" s="268"/>
     </row>
     <row r="87" spans="1:10" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
@@ -5123,29 +5132,29 @@
       <c r="C87" s="137"/>
       <c r="D87" s="137"/>
       <c r="E87" s="137"/>
-      <c r="F87" s="228"/>
-      <c r="G87" s="228"/>
-      <c r="H87" s="228"/>
-      <c r="I87" s="228"/>
+      <c r="F87" s="210"/>
+      <c r="G87" s="210"/>
+      <c r="H87" s="210"/>
+      <c r="I87" s="210"/>
       <c r="J87" s="180"/>
     </row>
     <row r="88" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="229">
+      <c r="A88" s="211">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="B88" s="229"/>
-      <c r="C88" s="229">
+      <c r="B88" s="211"/>
+      <c r="C88" s="211">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D88" s="229"/>
-      <c r="E88" s="229" t="str">
+      <c r="D88" s="211"/>
+      <c r="E88" s="211" t="str">
         <f>IF(B5&lt;&gt;"",B5,"")</f>
         <v/>
       </c>
-      <c r="F88" s="229"/>
-      <c r="G88" s="229"/>
+      <c r="F88" s="211"/>
+      <c r="G88" s="211"/>
       <c r="H88" s="138"/>
       <c r="I88" s="138"/>
       <c r="J88" s="138"/>
@@ -5166,130 +5175,138 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="223"/>
-      <c r="B90" s="223"/>
-      <c r="C90" s="223"/>
-      <c r="D90" s="223"/>
-      <c r="E90" s="160"/>
+      <c r="A90" s="262" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="262"/>
+      <c r="C90" s="262"/>
+      <c r="D90" s="262"/>
+      <c r="E90" s="160">
+        <f>A34</f>
+        <v>0</v>
+      </c>
       <c r="F90" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G90" s="221"/>
-      <c r="H90" s="221"/>
-      <c r="I90" s="221"/>
-      <c r="J90" s="221"/>
+      <c r="G90" s="316">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="316"/>
+      <c r="I90" s="198"/>
+      <c r="J90" s="198"/>
     </row>
     <row r="91" spans="1:10" s="67" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="223"/>
-      <c r="B91" s="223"/>
-      <c r="C91" s="223"/>
-      <c r="D91" s="223"/>
+      <c r="A91" s="262"/>
+      <c r="B91" s="262"/>
+      <c r="C91" s="262"/>
+      <c r="D91" s="262"/>
       <c r="E91" s="160"/>
       <c r="F91" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G91" s="221"/>
-      <c r="H91" s="221"/>
-      <c r="I91" s="221"/>
-      <c r="J91" s="221"/>
+      <c r="G91" s="198"/>
+      <c r="H91" s="198"/>
+      <c r="I91" s="198"/>
+      <c r="J91" s="198"/>
     </row>
     <row r="92" spans="1:10" s="67" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="223"/>
-      <c r="B92" s="223"/>
-      <c r="C92" s="223"/>
-      <c r="D92" s="223"/>
+      <c r="A92" s="262"/>
+      <c r="B92" s="262"/>
+      <c r="C92" s="262"/>
+      <c r="D92" s="262"/>
       <c r="E92" s="160"/>
       <c r="F92" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G92" s="221"/>
-      <c r="H92" s="221"/>
-      <c r="I92" s="221"/>
-      <c r="J92" s="221"/>
+      <c r="G92" s="198"/>
+      <c r="H92" s="198"/>
+      <c r="I92" s="198"/>
+      <c r="J92" s="198"/>
     </row>
     <row r="93" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="223"/>
-      <c r="B93" s="223"/>
-      <c r="C93" s="223"/>
-      <c r="D93" s="223"/>
+      <c r="A93" s="262"/>
+      <c r="B93" s="262"/>
+      <c r="C93" s="262"/>
+      <c r="D93" s="262"/>
       <c r="E93" s="160"/>
       <c r="F93" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G93" s="221"/>
-      <c r="H93" s="221"/>
-      <c r="I93" s="221"/>
-      <c r="J93" s="221"/>
+      <c r="G93" s="198"/>
+      <c r="H93" s="198"/>
+      <c r="I93" s="198"/>
+      <c r="J93" s="198"/>
     </row>
     <row r="94" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="223"/>
-      <c r="B94" s="223"/>
-      <c r="C94" s="223"/>
-      <c r="D94" s="223"/>
+      <c r="A94" s="262"/>
+      <c r="B94" s="262"/>
+      <c r="C94" s="262"/>
+      <c r="D94" s="262"/>
       <c r="E94" s="160"/>
       <c r="F94" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G94" s="221"/>
-      <c r="H94" s="221"/>
-      <c r="I94" s="221"/>
-      <c r="J94" s="221"/>
+      <c r="G94" s="198"/>
+      <c r="H94" s="198"/>
+      <c r="I94" s="198"/>
+      <c r="J94" s="198"/>
     </row>
     <row r="95" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="223"/>
-      <c r="B95" s="223"/>
-      <c r="C95" s="223"/>
-      <c r="D95" s="223"/>
+      <c r="A95" s="262"/>
+      <c r="B95" s="262"/>
+      <c r="C95" s="262"/>
+      <c r="D95" s="262"/>
       <c r="E95" s="160"/>
       <c r="F95" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G95" s="221"/>
-      <c r="H95" s="221"/>
-      <c r="I95" s="221"/>
-      <c r="J95" s="221"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="198"/>
+      <c r="I95" s="198"/>
+      <c r="J95" s="198"/>
     </row>
     <row r="96" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="223"/>
-      <c r="B96" s="223"/>
-      <c r="C96" s="223"/>
-      <c r="D96" s="223"/>
+      <c r="A96" s="262"/>
+      <c r="B96" s="262"/>
+      <c r="C96" s="262"/>
+      <c r="D96" s="262"/>
       <c r="E96" s="160"/>
       <c r="F96" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="221"/>
-      <c r="H96" s="221"/>
-      <c r="I96" s="221"/>
-      <c r="J96" s="221"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="198"/>
     </row>
     <row r="97" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="223"/>
-      <c r="B97" s="223"/>
-      <c r="C97" s="223"/>
-      <c r="D97" s="223"/>
+      <c r="A97" s="262"/>
+      <c r="B97" s="262"/>
+      <c r="C97" s="262"/>
+      <c r="D97" s="262"/>
       <c r="E97" s="160"/>
       <c r="F97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G97" s="221"/>
-      <c r="H97" s="221"/>
-      <c r="I97" s="221"/>
-      <c r="J97" s="221"/>
+      <c r="G97" s="198"/>
+      <c r="H97" s="198"/>
+      <c r="I97" s="198"/>
+      <c r="J97" s="198"/>
     </row>
     <row r="98" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="223"/>
-      <c r="B98" s="223"/>
-      <c r="C98" s="223"/>
-      <c r="D98" s="223"/>
+      <c r="A98" s="262"/>
+      <c r="B98" s="262"/>
+      <c r="C98" s="262"/>
+      <c r="D98" s="262"/>
       <c r="E98" s="160"/>
       <c r="F98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G98" s="221"/>
-      <c r="H98" s="221"/>
-      <c r="I98" s="221"/>
-      <c r="J98" s="221"/>
+      <c r="G98" s="198"/>
+      <c r="H98" s="198"/>
+      <c r="I98" s="198"/>
+      <c r="J98" s="198"/>
     </row>
     <row r="99" spans="1:12" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="118" t="s">
@@ -5297,46 +5314,46 @@
       </c>
     </row>
     <row r="100" spans="1:12" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="224"/>
-      <c r="B100" s="224"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="224"/>
+      <c r="A100" s="213"/>
+      <c r="B100" s="213"/>
+      <c r="C100" s="213"/>
+      <c r="D100" s="213"/>
       <c r="E100" s="160"/>
       <c r="F100" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G100" s="221"/>
-      <c r="H100" s="221"/>
-      <c r="I100" s="221"/>
-      <c r="J100" s="221"/>
+      <c r="G100" s="198"/>
+      <c r="H100" s="198"/>
+      <c r="I100" s="198"/>
+      <c r="J100" s="198"/>
     </row>
     <row r="101" spans="1:12" s="67" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="224"/>
-      <c r="B101" s="224"/>
-      <c r="C101" s="224"/>
-      <c r="D101" s="224"/>
+      <c r="A101" s="213"/>
+      <c r="B101" s="213"/>
+      <c r="C101" s="213"/>
+      <c r="D101" s="213"/>
       <c r="E101" s="161"/>
       <c r="F101" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="G101" s="222"/>
-      <c r="H101" s="222"/>
-      <c r="I101" s="222"/>
-      <c r="J101" s="222"/>
+      <c r="G101" s="259"/>
+      <c r="H101" s="259"/>
+      <c r="I101" s="259"/>
+      <c r="J101" s="259"/>
     </row>
     <row r="102" spans="1:12" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="219" t="s">
+      <c r="A102" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="219"/>
-      <c r="C102" s="219"/>
-      <c r="D102" s="219"/>
-      <c r="E102" s="219"/>
-      <c r="F102" s="219"/>
-      <c r="G102" s="219"/>
-      <c r="H102" s="219"/>
-      <c r="I102" s="219"/>
-      <c r="J102" s="219"/>
+      <c r="B102" s="207"/>
+      <c r="C102" s="207"/>
+      <c r="D102" s="207"/>
+      <c r="E102" s="207"/>
+      <c r="F102" s="207"/>
+      <c r="G102" s="207"/>
+      <c r="H102" s="207"/>
+      <c r="I102" s="207"/>
+      <c r="J102" s="207"/>
     </row>
     <row r="103" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="61" t="s">
@@ -5360,8 +5377,8 @@
       <c r="C104" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="207"/>
-      <c r="E104" s="207"/>
+      <c r="D104" s="274"/>
+      <c r="E104" s="274"/>
       <c r="F104" s="63" t="s">
         <v>273</v>
       </c>
@@ -5380,8 +5397,8 @@
       <c r="C105" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D105" s="207"/>
-      <c r="E105" s="207"/>
+      <c r="D105" s="274"/>
+      <c r="E105" s="274"/>
       <c r="F105" s="63" t="s">
         <v>273</v>
       </c>
@@ -5393,44 +5410,44 @@
       <c r="J105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="220" t="s">
+      <c r="A106" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="220"/>
-      <c r="C106" s="220"/>
-      <c r="D106" s="220"/>
-      <c r="E106" s="220"/>
-      <c r="F106" s="220"/>
-      <c r="G106" s="220"/>
-      <c r="H106" s="220"/>
-      <c r="I106" s="220"/>
-      <c r="J106" s="220"/>
+      <c r="B106" s="236"/>
+      <c r="C106" s="236"/>
+      <c r="D106" s="236"/>
+      <c r="E106" s="236"/>
+      <c r="F106" s="236"/>
+      <c r="G106" s="236"/>
+      <c r="H106" s="236"/>
+      <c r="I106" s="236"/>
+      <c r="J106" s="236"/>
     </row>
     <row r="107" spans="1:12" s="27" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="231"/>
-      <c r="B107" s="231"/>
-      <c r="C107" s="231"/>
-      <c r="D107" s="231"/>
-      <c r="E107" s="231"/>
-      <c r="F107" s="231"/>
-      <c r="G107" s="231"/>
-      <c r="H107" s="231"/>
-      <c r="I107" s="231"/>
-      <c r="J107" s="231"/>
+      <c r="A107" s="258"/>
+      <c r="B107" s="258"/>
+      <c r="C107" s="258"/>
+      <c r="D107" s="258"/>
+      <c r="E107" s="258"/>
+      <c r="F107" s="258"/>
+      <c r="G107" s="258"/>
+      <c r="H107" s="258"/>
+      <c r="I107" s="258"/>
+      <c r="J107" s="258"/>
     </row>
     <row r="108" spans="1:12" s="191" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="198" t="s">
+      <c r="A108" s="269" t="s">
         <v>436</v>
       </c>
-      <c r="B108" s="198"/>
-      <c r="C108" s="198"/>
-      <c r="D108" s="198"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="199"/>
-      <c r="G108" s="199"/>
-      <c r="H108" s="199"/>
-      <c r="I108" s="199"/>
-      <c r="J108" s="199"/>
+      <c r="B108" s="269"/>
+      <c r="C108" s="269"/>
+      <c r="D108" s="269"/>
+      <c r="E108" s="269"/>
+      <c r="F108" s="270"/>
+      <c r="G108" s="270"/>
+      <c r="H108" s="270"/>
+      <c r="I108" s="270"/>
+      <c r="J108" s="270"/>
       <c r="K108" s="190"/>
       <c r="L108" s="190"/>
     </row>
@@ -5444,10 +5461,10 @@
       </c>
       <c r="D109" s="195"/>
       <c r="E109" s="195"/>
-      <c r="F109" s="200" t="s">
+      <c r="F109" s="271" t="s">
         <v>360</v>
       </c>
-      <c r="G109" s="200"/>
+      <c r="G109" s="271"/>
       <c r="H109" s="195"/>
       <c r="I109" s="195"/>
       <c r="J109" s="195"/>
@@ -5455,13 +5472,13 @@
       <c r="L109" s="196"/>
     </row>
     <row r="110" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="220" t="s">
+      <c r="A110" s="236" t="s">
         <v>447</v>
       </c>
-      <c r="B110" s="220"/>
-      <c r="C110" s="201"/>
-      <c r="D110" s="201"/>
-      <c r="E110" s="201"/>
+      <c r="B110" s="236"/>
+      <c r="C110" s="209"/>
+      <c r="D110" s="209"/>
+      <c r="E110" s="209"/>
       <c r="G110" s="187"/>
       <c r="H110" s="187"/>
       <c r="I110" s="187"/>
@@ -5487,12 +5504,12 @@
       <c r="C112" s="64"/>
       <c r="D112" s="65"/>
       <c r="E112" s="65"/>
-      <c r="G112" s="218" t="s">
+      <c r="G112" s="224" t="s">
         <v>180</v>
       </c>
-      <c r="H112" s="218"/>
-      <c r="I112" s="218"/>
-      <c r="J112" s="218"/>
+      <c r="H112" s="224"/>
+      <c r="I112" s="224"/>
+      <c r="J112" s="224"/>
     </row>
     <row r="113" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="60" t="s">
@@ -5851,33 +5868,133 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="178">
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="A107:J107"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="E88:G88"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="C19:E19"/>
@@ -5902,133 +6019,33 @@
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="E66:J66"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="F108:J108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
   </mergeCells>
   <dataValidations count="30">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J72 D59 J56 D57 D22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6259,34 +6276,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6309,10 +6326,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -6338,77 +6355,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -6741,77 +6758,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -6831,10 +6848,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="300" t="s">
+      <c r="H33" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="300"/>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -6860,77 +6877,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="278" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="281" t="s">
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="282"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="291"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="287" t="s">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="308"/>
-      <c r="L36" s="284"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="295" t="s">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="297"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="285"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="286"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="296"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="280"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -7263,76 +7280,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="314"/>
-      <c r="H55" s="314"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="314"/>
-      <c r="L55" s="315"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="305" t="s">
+      <c r="C58" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="304"/>
-      <c r="J58" s="304"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="304"/>
-      <c r="J60" s="304"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -7340,15 +7357,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="303"/>
-      <c r="E61" s="303"/>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="311"/>
-      <c r="J61" s="311"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7447,6 +7464,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C58:E58"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="D61:G61"/>
@@ -7463,37 +7511,6 @@
     <mergeCell ref="J5:L7"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7559,34 +7576,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -7609,10 +7626,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -7638,77 +7655,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -8041,77 +8058,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -8131,10 +8148,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="300" t="s">
+      <c r="H33" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="300"/>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -8160,77 +8177,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="278" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="281" t="s">
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="282"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="291"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="287" t="s">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="308"/>
-      <c r="L36" s="284"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="295" t="s">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="297"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="285"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="286"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="296"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="280"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -8563,76 +8580,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="314"/>
-      <c r="H55" s="314"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="314"/>
-      <c r="L55" s="315"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="305" t="s">
+      <c r="C58" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="304"/>
-      <c r="J58" s="304"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="304"/>
-      <c r="J60" s="304"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -8640,15 +8657,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="303"/>
-      <c r="E61" s="303"/>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="311"/>
-      <c r="J61" s="311"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8747,6 +8764,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -8763,37 +8811,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29 C59:J59" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -8859,34 +8876,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -8909,10 +8926,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -8938,77 +8955,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -9341,77 +9358,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -9431,10 +9448,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="300" t="s">
+      <c r="H33" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="300"/>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -9460,77 +9477,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="278" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="281" t="s">
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="282"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="291"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="287" t="s">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="308"/>
-      <c r="L36" s="284"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="295" t="s">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="297"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="285"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="286"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="296"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="280"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -9863,76 +9880,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="314"/>
-      <c r="H55" s="314"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="314"/>
-      <c r="L55" s="315"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="305" t="s">
+      <c r="C58" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="304"/>
-      <c r="J58" s="304"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="304"/>
-      <c r="J60" s="304"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -9940,15 +9957,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="303"/>
-      <c r="E61" s="303"/>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="311"/>
-      <c r="J61" s="311"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10047,6 +10064,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -10063,37 +10111,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -10159,34 +10176,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -10209,10 +10226,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -10238,77 +10255,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -10641,77 +10658,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -10731,10 +10748,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="300" t="s">
+      <c r="H33" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="300"/>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -10760,77 +10777,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="278" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="281" t="s">
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="282"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="291"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="287" t="s">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="308"/>
-      <c r="L36" s="284"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="295" t="s">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="297"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="285"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="286"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="296"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="280"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -11163,76 +11180,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="314"/>
-      <c r="H55" s="314"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="314"/>
-      <c r="L55" s="315"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="305" t="s">
+      <c r="C58" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="304"/>
-      <c r="J58" s="304"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="304"/>
-      <c r="J60" s="304"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -11240,15 +11257,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="303"/>
-      <c r="E61" s="303"/>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="311"/>
-      <c r="J61" s="311"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,6 +11364,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -11363,37 +11411,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29 C59:J59" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -11459,34 +11476,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -11509,10 +11526,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -11538,77 +11555,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -11941,77 +11958,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -12031,10 +12048,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="300" t="s">
+      <c r="H33" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="300"/>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -12060,77 +12077,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="278" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="281" t="s">
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="282"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="291"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="287" t="s">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="308"/>
-      <c r="L36" s="284"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="295" t="s">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="297"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="285"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="286"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="296"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="280"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -12463,76 +12480,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="314"/>
-      <c r="H55" s="314"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="314"/>
-      <c r="L55" s="315"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="305" t="s">
+      <c r="C58" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="304"/>
-      <c r="J58" s="304"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="304"/>
-      <c r="J60" s="304"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -12540,15 +12557,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="303"/>
-      <c r="E61" s="303"/>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="311"/>
-      <c r="J61" s="311"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12647,6 +12664,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -12663,37 +12711,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -12759,34 +12776,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="310">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="310"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="310">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -12809,10 +12826,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="304" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -12838,77 +12855,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="278" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="295" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281" t="s">
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="282"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="287" t="s">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="284"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="295" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="286"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="296"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="280"/>
+      <c r="G8" s="312"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -13241,77 +13258,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="315"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="130" t="s">
@@ -13395,6 +13412,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -13411,14 +13436,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29" xr:uid="{00000000-0002-0000-0600-000000000000}">

--- a/Dekauto.Export.Service/card_template.xlsx
+++ b/Dekauto.Export.Service/card_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itmedia pc\source\repos\Dekauto.Export.Service\Dekauto.Export.Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4333D1B-20ED-48D2-BADA-72B4FF7448B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B47CE-00EF-49D2-8387-9B5EF1BCAA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="450">
   <si>
     <t>Фамилия:</t>
   </si>
@@ -3074,284 +3074,350 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3360,72 +3426,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3842,7 +3842,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3859,70 +3859,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="240" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="254" t="s">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="255" t="s">
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="243" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3933,30 +3933,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="142"/>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="214" t="s">
+      <c r="D6" s="245"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
     </row>
     <row r="7" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="208"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
+      <c r="A7" s="247"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="247"/>
     </row>
     <row r="8" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
@@ -3977,16 +3977,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="120"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
       <c r="F9" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="248"/>
     </row>
     <row r="10" spans="1:10" s="66" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
@@ -4002,23 +4002,23 @@
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="239" t="s">
+      <c r="H10" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
     </row>
     <row r="11" spans="1:10" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
+      <c r="A11" s="250"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
     </row>
     <row r="12" spans="1:10" s="66" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
@@ -4041,23 +4041,23 @@
         <v>22</v>
       </c>
       <c r="B13" s="51"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
     </row>
     <row r="14" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="242" t="s">
+      <c r="A14" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
@@ -4066,47 +4066,45 @@
         <v>23</v>
       </c>
       <c r="B15" s="124"/>
-      <c r="C15" s="214" t="s">
+      <c r="C15" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="215"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="209" t="s">
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="201" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="209"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
       <c r="E17" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="147"/>
-      <c r="G17" s="100" t="s">
-        <v>314</v>
-      </c>
+      <c r="G17" s="100"/>
       <c r="H17" s="147"/>
       <c r="I17" s="97" t="s">
         <v>219</v>
@@ -4114,13 +4112,13 @@
       <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" s="66" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="242" t="s">
+      <c r="A18" s="203" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -4132,47 +4130,45 @@
         <v>23</v>
       </c>
       <c r="B19" s="124"/>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="60"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
     </row>
     <row r="20" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="217" t="s">
+      <c r="B20" s="247"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="262" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
     </row>
     <row r="21" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="143"/>
-      <c r="G21" s="149" t="s">
-        <v>314</v>
-      </c>
+      <c r="G21" s="149"/>
       <c r="H21" s="143"/>
       <c r="I21" s="57" t="s">
         <v>344</v>
@@ -4180,11 +4176,11 @@
       <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="223" t="s">
+      <c r="A22" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="223"/>
-      <c r="C22" s="223"/>
+      <c r="B22" s="275"/>
+      <c r="C22" s="275"/>
       <c r="D22" s="148" t="s">
         <v>15</v>
       </c>
@@ -4202,163 +4198,163 @@
       <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="209"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="224"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="225"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
     </row>
     <row r="26" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
     </row>
     <row r="27" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="272"/>
     </row>
     <row r="28" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="209"/>
-      <c r="B28" s="209"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
+      <c r="A28" s="201"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
     </row>
     <row r="29" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
     </row>
     <row r="30" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
     </row>
     <row r="31" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="231"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="231"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="264"/>
+      <c r="J31" s="264"/>
     </row>
     <row r="32" spans="1:10" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="207"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="232" t="s">
+      <c r="A33" s="265" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="265"/>
+      <c r="F33" s="265"/>
+      <c r="G33" s="265"/>
+      <c r="H33" s="265"/>
+      <c r="I33" s="265"/>
+      <c r="J33" s="265"/>
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="150"/>
       <c r="B34" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
     </row>
     <row r="35" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="233" t="s">
+      <c r="A35" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
       <c r="E35" s="72"/>
       <c r="F35" s="68"/>
-      <c r="G35" s="218" t="s">
+      <c r="G35" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="218"/>
-      <c r="I35" s="219"/>
+      <c r="H35" s="273"/>
+      <c r="I35" s="274"/>
       <c r="J35" s="178">
         <f>E37+E38+E39</f>
         <v>0</v>
@@ -4366,11 +4362,11 @@
     </row>
     <row r="36" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74"/>
-      <c r="B36" s="277" t="s">
+      <c r="B36" s="215" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="277"/>
-      <c r="D36" s="277"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
       <c r="E36" s="115" t="s">
         <v>371</v>
       </c>
@@ -4386,45 +4382,45 @@
       <c r="A37" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
+      <c r="B37" s="266"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="152"/>
-      <c r="F37" s="221" t="s">
+      <c r="F37" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="G37" s="222"/>
-      <c r="H37" s="222"/>
-      <c r="I37" s="222"/>
-      <c r="J37" s="222"/>
+      <c r="G37" s="271"/>
+      <c r="H37" s="271"/>
+      <c r="I37" s="271"/>
+      <c r="J37" s="271"/>
     </row>
     <row r="38" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="73"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
       <c r="E38" s="152"/>
-      <c r="F38" s="221" t="s">
+      <c r="F38" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="G38" s="222"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="222"/>
+      <c r="G38" s="271"/>
+      <c r="H38" s="271"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="271"/>
     </row>
     <row r="39" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
+      <c r="B39" s="266"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="152"/>
-      <c r="F39" s="221" t="s">
+      <c r="F39" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
+      <c r="G39" s="271"/>
+      <c r="H39" s="271"/>
+      <c r="I39" s="271"/>
+      <c r="J39" s="271"/>
     </row>
     <row r="40" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="60" t="s">
@@ -4432,32 +4428,32 @@
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="217" t="s">
+      <c r="D40" s="262" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="217"/>
-      <c r="J40" s="217"/>
+      <c r="E40" s="262"/>
+      <c r="F40" s="262"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="262"/>
+      <c r="I40" s="262"/>
+      <c r="J40" s="262"/>
     </row>
     <row r="41" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="259" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="250"/>
-      <c r="C41" s="250"/>
-      <c r="D41" s="209" t="str">
+      <c r="B41" s="259"/>
+      <c r="C41" s="259"/>
+      <c r="D41" s="201" t="str">
         <f>IF(D40="среднее общее образование","о среднем общем образовании","о среднем профессиональном образовании")</f>
         <v>о среднем общем образовании</v>
       </c>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="209"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="201"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
@@ -4469,65 +4465,65 @@
       <c r="C42" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="199"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
       <c r="F42" s="109" t="s">
         <v>360</v>
       </c>
       <c r="G42" s="109"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="234"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="59"/>
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="236" t="s">
+      <c r="A43" s="220" t="s">
         <v>435</v>
       </c>
-      <c r="B43" s="236"/>
-      <c r="C43" s="236"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
-      <c r="H43" s="236"/>
-      <c r="I43" s="236"/>
-      <c r="J43" s="236"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
     </row>
     <row r="44" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="234" t="s">
+      <c r="A44" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="B44" s="234"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="206"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="206"/>
-      <c r="J44" s="206"/>
+      <c r="B44" s="268"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="267"/>
+      <c r="I44" s="267"/>
+      <c r="J44" s="267"/>
     </row>
     <row r="45" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="217" t="s">
         <v>354</v>
       </c>
-      <c r="B45" s="205"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="206"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="267"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="267"/>
+      <c r="I45" s="267"/>
+      <c r="J45" s="267"/>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="249" t="s">
+      <c r="A46" s="258" t="s">
         <v>355</v>
       </c>
-      <c r="B46" s="249"/>
+      <c r="B46" s="258"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -4542,14 +4538,14 @@
         <v>32</v>
       </c>
       <c r="B47" s="52"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="235"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="269"/>
+      <c r="F47" s="269"/>
+      <c r="G47" s="269"/>
+      <c r="H47" s="269"/>
+      <c r="I47" s="269"/>
+      <c r="J47" s="269"/>
     </row>
     <row r="48" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
@@ -4571,29 +4567,29 @@
       <c r="C49" s="137"/>
       <c r="D49" s="137"/>
       <c r="E49" s="137"/>
-      <c r="F49" s="210"/>
-      <c r="G49" s="210"/>
-      <c r="H49" s="210"/>
-      <c r="I49" s="210"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
       <c r="J49" s="180"/>
     </row>
     <row r="50" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="211">
+      <c r="A50" s="230">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="B50" s="211"/>
-      <c r="C50" s="211">
+      <c r="B50" s="230"/>
+      <c r="C50" s="230">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211" t="str">
+      <c r="D50" s="230"/>
+      <c r="E50" s="230" t="str">
         <f>IF(B5&lt;&gt;"",B5,"")</f>
         <v/>
       </c>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="230"/>
       <c r="H50" s="138"/>
       <c r="I50" s="138"/>
       <c r="J50" s="138"/>
@@ -4605,39 +4601,39 @@
       <c r="B51" s="51"/>
     </row>
     <row r="52" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="230" t="s">
+      <c r="A52" s="263" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="230"/>
-      <c r="C52" s="230"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="212"/>
-      <c r="G52" s="212"/>
-      <c r="H52" s="212"/>
-      <c r="I52" s="212"/>
-      <c r="J52" s="212"/>
+      <c r="B52" s="263"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="278"/>
+      <c r="E52" s="278"/>
+      <c r="F52" s="278"/>
+      <c r="G52" s="278"/>
+      <c r="H52" s="278"/>
+      <c r="I52" s="278"/>
+      <c r="J52" s="278"/>
     </row>
     <row r="53" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="228" t="s">
+      <c r="A53" s="260" t="s">
         <v>357</v>
       </c>
-      <c r="B53" s="228"/>
-      <c r="C53" s="228"/>
-      <c r="D53" s="229"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="229"/>
-      <c r="G53" s="229"/>
-      <c r="H53" s="229"/>
-      <c r="I53" s="229"/>
-      <c r="J53" s="229"/>
+      <c r="B53" s="260"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="261"/>
+      <c r="G53" s="261"/>
+      <c r="H53" s="261"/>
+      <c r="I53" s="261"/>
+      <c r="J53" s="261"/>
     </row>
     <row r="54" spans="1:10" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="201" t="s">
+      <c r="A54" s="277" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
+      <c r="B54" s="277"/>
+      <c r="C54" s="277"/>
       <c r="D54" s="202"/>
       <c r="E54" s="202"/>
       <c r="F54" s="202"/>
@@ -4647,20 +4643,20 @@
       <c r="J54" s="202"/>
     </row>
     <row r="55" spans="1:10" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="219" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="207"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="207"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
     </row>
     <row r="56" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="203" t="s">
+      <c r="A56" s="213" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="203"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
+      <c r="B56" s="213"/>
+      <c r="D56" s="262"/>
+      <c r="E56" s="262"/>
       <c r="F56" s="56" t="s">
         <v>358</v>
       </c>
@@ -4672,10 +4668,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="204" t="s">
+      <c r="A57" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="B57" s="204"/>
+      <c r="B57" s="211"/>
       <c r="C57" s="56"/>
       <c r="D57" s="155" t="s">
         <v>15</v>
@@ -4688,24 +4684,24 @@
       <c r="J57" s="52"/>
     </row>
     <row r="58" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="203" t="s">
+      <c r="A58" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="203"/>
+      <c r="B58" s="213"/>
       <c r="C58" s="60"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="208"/>
-      <c r="G58" s="208"/>
-      <c r="H58" s="208"/>
-      <c r="I58" s="208"/>
-      <c r="J58" s="208"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="247"/>
+      <c r="F58" s="247"/>
+      <c r="G58" s="247"/>
+      <c r="H58" s="247"/>
+      <c r="I58" s="247"/>
+      <c r="J58" s="247"/>
     </row>
     <row r="59" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="203" t="s">
+      <c r="A59" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="203"/>
+      <c r="B59" s="213"/>
       <c r="C59" s="60"/>
       <c r="D59" s="156" t="s">
         <v>15</v>
@@ -4718,70 +4714,70 @@
       <c r="J59" s="52"/>
     </row>
     <row r="60" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="203" t="s">
+      <c r="A60" s="213" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="203"/>
+      <c r="B60" s="213"/>
       <c r="C60" s="60"/>
-      <c r="D60" s="276"/>
-      <c r="E60" s="276"/>
-      <c r="F60" s="276"/>
-      <c r="G60" s="276"/>
-      <c r="H60" s="276"/>
-      <c r="I60" s="276"/>
-      <c r="J60" s="276"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
+      <c r="F60" s="210"/>
+      <c r="G60" s="210"/>
+      <c r="H60" s="210"/>
+      <c r="I60" s="210"/>
+      <c r="J60" s="210"/>
     </row>
     <row r="61" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="204" t="s">
+      <c r="A61" s="211" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="204"/>
-      <c r="C61" s="204"/>
-      <c r="D61" s="276"/>
-      <c r="E61" s="276"/>
-      <c r="F61" s="276"/>
-      <c r="G61" s="276"/>
-      <c r="H61" s="276"/>
-      <c r="I61" s="276"/>
-      <c r="J61" s="276"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="210"/>
     </row>
     <row r="62" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="204" t="s">
+      <c r="A62" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="204"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="215"/>
-      <c r="E62" s="215"/>
-      <c r="F62" s="215"/>
-      <c r="G62" s="215"/>
-      <c r="H62" s="215"/>
-      <c r="I62" s="215"/>
-      <c r="J62" s="215"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="212"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="212"/>
+      <c r="G62" s="212"/>
+      <c r="H62" s="212"/>
+      <c r="I62" s="212"/>
+      <c r="J62" s="212"/>
     </row>
     <row r="63" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="227" t="s">
+      <c r="A63" s="276" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="227"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="227"/>
-      <c r="E63" s="227"/>
-      <c r="F63" s="227"/>
-      <c r="G63" s="227"/>
-      <c r="H63" s="227"/>
-      <c r="I63" s="227"/>
-      <c r="J63" s="227"/>
+      <c r="B63" s="276"/>
+      <c r="C63" s="276"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
+      <c r="F63" s="276"/>
+      <c r="G63" s="276"/>
+      <c r="H63" s="276"/>
+      <c r="I63" s="276"/>
+      <c r="J63" s="276"/>
     </row>
     <row r="64" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="209"/>
+      <c r="B64" s="201"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="201"/>
     </row>
     <row r="65" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="110" t="s">
@@ -4791,15 +4787,15 @@
       <c r="C65" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="199"/>
+      <c r="D65" s="235"/>
+      <c r="E65" s="235"/>
       <c r="F65" s="109" t="s">
         <v>360</v>
       </c>
       <c r="G65" s="109"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="200"/>
+      <c r="H65" s="234"/>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
@@ -4810,48 +4806,48 @@
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="199"/>
-      <c r="G66" s="199"/>
-      <c r="H66" s="199"/>
-      <c r="I66" s="199"/>
-      <c r="J66" s="199"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="235"/>
     </row>
     <row r="67" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="226" t="s">
+      <c r="A67" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="205"/>
-      <c r="C67" s="257"/>
-      <c r="D67" s="257"/>
-      <c r="E67" s="257"/>
-      <c r="F67" s="257"/>
-      <c r="G67" s="257"/>
-      <c r="H67" s="257"/>
-      <c r="I67" s="257"/>
-      <c r="J67" s="257"/>
+      <c r="B67" s="217"/>
+      <c r="C67" s="231"/>
+      <c r="D67" s="231"/>
+      <c r="E67" s="231"/>
+      <c r="F67" s="231"/>
+      <c r="G67" s="231"/>
+      <c r="H67" s="231"/>
+      <c r="I67" s="231"/>
+      <c r="J67" s="231"/>
     </row>
     <row r="68" spans="1:12" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="226" t="s">
+      <c r="A68" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="B68" s="226"/>
-      <c r="C68" s="265"/>
-      <c r="D68" s="265"/>
-      <c r="E68" s="265"/>
-      <c r="F68" s="265"/>
-      <c r="G68" s="265"/>
-      <c r="H68" s="265"/>
-      <c r="I68" s="265"/>
-      <c r="J68" s="265"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="209"/>
+      <c r="D68" s="209"/>
+      <c r="E68" s="209"/>
+      <c r="F68" s="209"/>
+      <c r="G68" s="209"/>
+      <c r="H68" s="209"/>
+      <c r="I68" s="209"/>
+      <c r="J68" s="209"/>
     </row>
     <row r="69" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="233" t="s">
+      <c r="A69" s="204" t="s">
         <v>379</v>
       </c>
-      <c r="B69" s="233"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
       <c r="E69" s="108"/>
       <c r="F69" s="108"/>
       <c r="G69" s="108"/>
@@ -4865,9 +4861,9 @@
       </c>
       <c r="B70" s="117"/>
       <c r="C70" s="106"/>
-      <c r="D70" s="273"/>
-      <c r="E70" s="273"/>
-      <c r="F70" s="273"/>
+      <c r="D70" s="206"/>
+      <c r="E70" s="206"/>
+      <c r="F70" s="206"/>
     </row>
     <row r="71" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="177" t="s">
@@ -4884,10 +4880,10 @@
       <c r="J71" s="88"/>
     </row>
     <row r="72" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="260" t="s">
+      <c r="A72" s="233" t="s">
         <v>363</v>
       </c>
-      <c r="B72" s="260"/>
+      <c r="B72" s="233"/>
       <c r="C72" s="159"/>
       <c r="D72" s="60" t="s">
         <v>364</v>
@@ -4901,44 +4897,44 @@
       <c r="J72" s="157"/>
     </row>
     <row r="73" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="260" t="s">
+      <c r="A73" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="260"/>
+      <c r="B73" s="233"/>
       <c r="C73" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="200"/>
-      <c r="E73" s="200"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
       <c r="F73" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="199"/>
-      <c r="H73" s="199"/>
-      <c r="I73" s="199"/>
-      <c r="J73" s="199"/>
+      <c r="G73" s="235"/>
+      <c r="H73" s="235"/>
+      <c r="I73" s="235"/>
+      <c r="J73" s="235"/>
     </row>
     <row r="74" spans="1:12" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="112" t="s">
         <v>367</v>
       </c>
       <c r="B74" s="112"/>
-      <c r="C74" s="261"/>
-      <c r="D74" s="261"/>
-      <c r="E74" s="261"/>
-      <c r="F74" s="261"/>
-      <c r="G74" s="261"/>
-      <c r="H74" s="261"/>
-      <c r="I74" s="261"/>
-      <c r="J74" s="261"/>
+      <c r="C74" s="236"/>
+      <c r="D74" s="236"/>
+      <c r="E74" s="236"/>
+      <c r="F74" s="236"/>
+      <c r="G74" s="236"/>
+      <c r="H74" s="236"/>
+      <c r="I74" s="236"/>
+      <c r="J74" s="236"/>
     </row>
     <row r="75" spans="1:12" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="244" t="s">
+      <c r="A75" s="253" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="244"/>
-      <c r="C75" s="244"/>
-      <c r="D75" s="244"/>
+      <c r="B75" s="253"/>
+      <c r="C75" s="253"/>
+      <c r="D75" s="253"/>
       <c r="E75" s="90"/>
       <c r="F75" s="90"/>
       <c r="G75" s="90"/>
@@ -4951,85 +4947,85 @@
         <v>317</v>
       </c>
       <c r="B76" s="89"/>
-      <c r="C76" s="245" t="s">
+      <c r="C76" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="245"/>
-      <c r="E76" s="245"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="254"/>
       <c r="F76" s="89" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="89"/>
-      <c r="H76" s="247" t="s">
+      <c r="H76" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="I76" s="247"/>
-      <c r="J76" s="247"/>
+      <c r="I76" s="256"/>
+      <c r="J76" s="256"/>
     </row>
     <row r="77" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="246"/>
-      <c r="C77" s="246"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="246"/>
-      <c r="F77" s="246"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="246"/>
-      <c r="I77" s="246"/>
-      <c r="J77" s="246"/>
+      <c r="B77" s="255"/>
+      <c r="C77" s="255"/>
+      <c r="D77" s="255"/>
+      <c r="E77" s="255"/>
+      <c r="F77" s="255"/>
+      <c r="G77" s="255"/>
+      <c r="H77" s="255"/>
+      <c r="I77" s="255"/>
+      <c r="J77" s="255"/>
     </row>
     <row r="78" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="226" t="s">
+      <c r="A78" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B78" s="205"/>
-      <c r="C78" s="248"/>
-      <c r="D78" s="248"/>
-      <c r="E78" s="248"/>
-      <c r="F78" s="248"/>
-      <c r="G78" s="248"/>
-      <c r="H78" s="248"/>
-      <c r="I78" s="248"/>
-      <c r="J78" s="248"/>
+      <c r="B78" s="217"/>
+      <c r="C78" s="257"/>
+      <c r="D78" s="257"/>
+      <c r="E78" s="257"/>
+      <c r="F78" s="257"/>
+      <c r="G78" s="257"/>
+      <c r="H78" s="257"/>
+      <c r="I78" s="257"/>
+      <c r="J78" s="257"/>
     </row>
     <row r="79" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="B79" s="226"/>
-      <c r="C79" s="265"/>
-      <c r="D79" s="265"/>
-      <c r="E79" s="265"/>
-      <c r="F79" s="265"/>
-      <c r="G79" s="265"/>
-      <c r="H79" s="265"/>
-      <c r="I79" s="265"/>
-      <c r="J79" s="265"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
     </row>
     <row r="80" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="226" t="s">
+      <c r="A80" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="B80" s="226"/>
-      <c r="C80" s="265" t="s">
+      <c r="B80" s="216"/>
+      <c r="C80" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="D80" s="265"/>
-      <c r="E80" s="265"/>
-      <c r="F80" s="265"/>
-      <c r="G80" s="265"/>
-      <c r="H80" s="265"/>
-      <c r="I80" s="265"/>
-      <c r="J80" s="265"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
     </row>
     <row r="81" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="263"/>
-      <c r="C81" s="263"/>
+      <c r="B81" s="237"/>
+      <c r="C81" s="237"/>
       <c r="D81" s="89" t="s">
         <v>164</v>
       </c>
@@ -5043,10 +5039,10 @@
       <c r="J81" s="127"/>
     </row>
     <row r="82" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="205" t="s">
+      <c r="A82" s="217" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="205"/>
+      <c r="B82" s="217"/>
       <c r="C82" s="71"/>
       <c r="D82" s="89" t="s">
         <v>328</v>
@@ -5059,10 +5055,10 @@
       <c r="J82" s="89"/>
     </row>
     <row r="83" spans="1:10" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="205" t="s">
+      <c r="A83" s="217" t="s">
         <v>327</v>
       </c>
-      <c r="B83" s="205"/>
+      <c r="B83" s="217"/>
       <c r="C83" s="71"/>
       <c r="D83" s="89" t="s">
         <v>329</v>
@@ -5075,31 +5071,31 @@
       <c r="J83" s="90"/>
     </row>
     <row r="84" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="275" t="s">
+      <c r="A84" s="208" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="275"/>
-      <c r="C84" s="265"/>
-      <c r="D84" s="265"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="209"/>
+      <c r="D84" s="209"/>
       <c r="E84" s="89" t="s">
         <v>330</v>
       </c>
       <c r="F84" s="89"/>
-      <c r="G84" s="264"/>
-      <c r="H84" s="264"/>
-      <c r="I84" s="264"/>
-      <c r="J84" s="264"/>
+      <c r="G84" s="238"/>
+      <c r="H84" s="238"/>
+      <c r="I84" s="238"/>
+      <c r="J84" s="238"/>
     </row>
     <row r="85" spans="1:10" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="89" t="s">
         <v>333</v>
       </c>
       <c r="B85" s="89"/>
-      <c r="C85" s="265" t="s">
+      <c r="C85" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="265"/>
-      <c r="E85" s="265"/>
+      <c r="D85" s="209"/>
+      <c r="E85" s="209"/>
       <c r="F85" s="70" t="s">
         <v>171</v>
       </c>
@@ -5107,22 +5103,22 @@
       <c r="H85" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="I85" s="266"/>
-      <c r="J85" s="266"/>
+      <c r="I85" s="226"/>
+      <c r="J85" s="226"/>
     </row>
     <row r="86" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="267" t="s">
+      <c r="A86" s="227" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="267"/>
-      <c r="C86" s="268"/>
-      <c r="D86" s="268"/>
-      <c r="E86" s="268"/>
-      <c r="F86" s="268"/>
-      <c r="G86" s="268"/>
-      <c r="H86" s="268"/>
-      <c r="I86" s="268"/>
-      <c r="J86" s="268"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="228"/>
+      <c r="D86" s="228"/>
+      <c r="E86" s="228"/>
+      <c r="F86" s="228"/>
+      <c r="G86" s="228"/>
+      <c r="H86" s="228"/>
+      <c r="I86" s="228"/>
+      <c r="J86" s="228"/>
     </row>
     <row r="87" spans="1:10" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
@@ -5132,29 +5128,29 @@
       <c r="C87" s="137"/>
       <c r="D87" s="137"/>
       <c r="E87" s="137"/>
-      <c r="F87" s="210"/>
-      <c r="G87" s="210"/>
-      <c r="H87" s="210"/>
-      <c r="I87" s="210"/>
+      <c r="F87" s="229"/>
+      <c r="G87" s="229"/>
+      <c r="H87" s="229"/>
+      <c r="I87" s="229"/>
       <c r="J87" s="180"/>
     </row>
     <row r="88" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="211">
+      <c r="A88" s="230">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="B88" s="211"/>
-      <c r="C88" s="211">
+      <c r="B88" s="230"/>
+      <c r="C88" s="230">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D88" s="211"/>
-      <c r="E88" s="211" t="str">
+      <c r="D88" s="230"/>
+      <c r="E88" s="230" t="str">
         <f>IF(B5&lt;&gt;"",B5,"")</f>
         <v/>
       </c>
-      <c r="F88" s="211"/>
-      <c r="G88" s="211"/>
+      <c r="F88" s="230"/>
+      <c r="G88" s="230"/>
       <c r="H88" s="138"/>
       <c r="I88" s="138"/>
       <c r="J88" s="138"/>
@@ -5175,12 +5171,12 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="262" t="s">
+      <c r="A90" s="223" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="262"/>
-      <c r="C90" s="262"/>
-      <c r="D90" s="262"/>
+      <c r="B90" s="223"/>
+      <c r="C90" s="223"/>
+      <c r="D90" s="223"/>
       <c r="E90" s="160">
         <f>A34</f>
         <v>0</v>
@@ -5188,125 +5184,125 @@
       <c r="F90" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G90" s="316">
+      <c r="G90" s="225">
         <f>C34</f>
         <v>0</v>
       </c>
-      <c r="H90" s="316"/>
-      <c r="I90" s="198"/>
-      <c r="J90" s="198"/>
+      <c r="H90" s="225"/>
+      <c r="I90" s="221"/>
+      <c r="J90" s="221"/>
     </row>
     <row r="91" spans="1:10" s="67" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="262"/>
-      <c r="B91" s="262"/>
-      <c r="C91" s="262"/>
-      <c r="D91" s="262"/>
+      <c r="A91" s="223"/>
+      <c r="B91" s="223"/>
+      <c r="C91" s="223"/>
+      <c r="D91" s="223"/>
       <c r="E91" s="160"/>
       <c r="F91" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G91" s="198"/>
-      <c r="H91" s="198"/>
-      <c r="I91" s="198"/>
-      <c r="J91" s="198"/>
+      <c r="G91" s="221"/>
+      <c r="H91" s="221"/>
+      <c r="I91" s="221"/>
+      <c r="J91" s="221"/>
     </row>
     <row r="92" spans="1:10" s="67" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="262"/>
-      <c r="B92" s="262"/>
-      <c r="C92" s="262"/>
-      <c r="D92" s="262"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="223"/>
+      <c r="C92" s="223"/>
+      <c r="D92" s="223"/>
       <c r="E92" s="160"/>
       <c r="F92" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G92" s="198"/>
-      <c r="H92" s="198"/>
-      <c r="I92" s="198"/>
-      <c r="J92" s="198"/>
+      <c r="G92" s="221"/>
+      <c r="H92" s="221"/>
+      <c r="I92" s="221"/>
+      <c r="J92" s="221"/>
     </row>
     <row r="93" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="262"/>
-      <c r="B93" s="262"/>
-      <c r="C93" s="262"/>
-      <c r="D93" s="262"/>
+      <c r="A93" s="223"/>
+      <c r="B93" s="223"/>
+      <c r="C93" s="223"/>
+      <c r="D93" s="223"/>
       <c r="E93" s="160"/>
       <c r="F93" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G93" s="198"/>
-      <c r="H93" s="198"/>
-      <c r="I93" s="198"/>
-      <c r="J93" s="198"/>
+      <c r="G93" s="221"/>
+      <c r="H93" s="221"/>
+      <c r="I93" s="221"/>
+      <c r="J93" s="221"/>
     </row>
     <row r="94" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="262"/>
-      <c r="B94" s="262"/>
-      <c r="C94" s="262"/>
-      <c r="D94" s="262"/>
+      <c r="A94" s="223"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="223"/>
+      <c r="D94" s="223"/>
       <c r="E94" s="160"/>
       <c r="F94" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G94" s="198"/>
-      <c r="H94" s="198"/>
-      <c r="I94" s="198"/>
-      <c r="J94" s="198"/>
+      <c r="G94" s="221"/>
+      <c r="H94" s="221"/>
+      <c r="I94" s="221"/>
+      <c r="J94" s="221"/>
     </row>
     <row r="95" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="262"/>
-      <c r="B95" s="262"/>
-      <c r="C95" s="262"/>
-      <c r="D95" s="262"/>
+      <c r="A95" s="223"/>
+      <c r="B95" s="223"/>
+      <c r="C95" s="223"/>
+      <c r="D95" s="223"/>
       <c r="E95" s="160"/>
       <c r="F95" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G95" s="198"/>
-      <c r="H95" s="198"/>
-      <c r="I95" s="198"/>
-      <c r="J95" s="198"/>
+      <c r="G95" s="221"/>
+      <c r="H95" s="221"/>
+      <c r="I95" s="221"/>
+      <c r="J95" s="221"/>
     </row>
     <row r="96" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="262"/>
-      <c r="B96" s="262"/>
-      <c r="C96" s="262"/>
-      <c r="D96" s="262"/>
+      <c r="A96" s="223"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="223"/>
+      <c r="D96" s="223"/>
       <c r="E96" s="160"/>
       <c r="F96" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="198"/>
+      <c r="G96" s="221"/>
+      <c r="H96" s="221"/>
+      <c r="I96" s="221"/>
+      <c r="J96" s="221"/>
     </row>
     <row r="97" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="262"/>
-      <c r="B97" s="262"/>
-      <c r="C97" s="262"/>
-      <c r="D97" s="262"/>
+      <c r="A97" s="223"/>
+      <c r="B97" s="223"/>
+      <c r="C97" s="223"/>
+      <c r="D97" s="223"/>
       <c r="E97" s="160"/>
       <c r="F97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G97" s="198"/>
-      <c r="H97" s="198"/>
-      <c r="I97" s="198"/>
-      <c r="J97" s="198"/>
+      <c r="G97" s="221"/>
+      <c r="H97" s="221"/>
+      <c r="I97" s="221"/>
+      <c r="J97" s="221"/>
     </row>
     <row r="98" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="262"/>
-      <c r="B98" s="262"/>
-      <c r="C98" s="262"/>
-      <c r="D98" s="262"/>
+      <c r="A98" s="223"/>
+      <c r="B98" s="223"/>
+      <c r="C98" s="223"/>
+      <c r="D98" s="223"/>
       <c r="E98" s="160"/>
       <c r="F98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G98" s="198"/>
-      <c r="H98" s="198"/>
-      <c r="I98" s="198"/>
-      <c r="J98" s="198"/>
+      <c r="G98" s="221"/>
+      <c r="H98" s="221"/>
+      <c r="I98" s="221"/>
+      <c r="J98" s="221"/>
     </row>
     <row r="99" spans="1:12" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="118" t="s">
@@ -5314,46 +5310,46 @@
       </c>
     </row>
     <row r="100" spans="1:12" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="213"/>
-      <c r="B100" s="213"/>
-      <c r="C100" s="213"/>
-      <c r="D100" s="213"/>
+      <c r="A100" s="224"/>
+      <c r="B100" s="224"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
       <c r="E100" s="160"/>
       <c r="F100" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G100" s="198"/>
-      <c r="H100" s="198"/>
-      <c r="I100" s="198"/>
-      <c r="J100" s="198"/>
+      <c r="G100" s="221"/>
+      <c r="H100" s="221"/>
+      <c r="I100" s="221"/>
+      <c r="J100" s="221"/>
     </row>
     <row r="101" spans="1:12" s="67" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="213"/>
-      <c r="B101" s="213"/>
-      <c r="C101" s="213"/>
-      <c r="D101" s="213"/>
+      <c r="A101" s="224"/>
+      <c r="B101" s="224"/>
+      <c r="C101" s="224"/>
+      <c r="D101" s="224"/>
       <c r="E101" s="161"/>
       <c r="F101" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="G101" s="259"/>
-      <c r="H101" s="259"/>
-      <c r="I101" s="259"/>
-      <c r="J101" s="259"/>
+      <c r="G101" s="222"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="222"/>
+      <c r="J101" s="222"/>
     </row>
     <row r="102" spans="1:12" s="27" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="207" t="s">
+      <c r="A102" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="207"/>
-      <c r="C102" s="207"/>
-      <c r="D102" s="207"/>
-      <c r="E102" s="207"/>
-      <c r="F102" s="207"/>
-      <c r="G102" s="207"/>
-      <c r="H102" s="207"/>
-      <c r="I102" s="207"/>
-      <c r="J102" s="207"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="219"/>
+      <c r="E102" s="219"/>
+      <c r="F102" s="219"/>
+      <c r="G102" s="219"/>
+      <c r="H102" s="219"/>
+      <c r="I102" s="219"/>
+      <c r="J102" s="219"/>
     </row>
     <row r="103" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="61" t="s">
@@ -5377,8 +5373,8 @@
       <c r="C104" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="274"/>
-      <c r="E104" s="274"/>
+      <c r="D104" s="207"/>
+      <c r="E104" s="207"/>
       <c r="F104" s="63" t="s">
         <v>273</v>
       </c>
@@ -5397,8 +5393,8 @@
       <c r="C105" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D105" s="274"/>
-      <c r="E105" s="274"/>
+      <c r="D105" s="207"/>
+      <c r="E105" s="207"/>
       <c r="F105" s="63" t="s">
         <v>273</v>
       </c>
@@ -5410,44 +5406,44 @@
       <c r="J105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="236" t="s">
+      <c r="A106" s="220" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="236"/>
-      <c r="C106" s="236"/>
-      <c r="D106" s="236"/>
-      <c r="E106" s="236"/>
-      <c r="F106" s="236"/>
-      <c r="G106" s="236"/>
-      <c r="H106" s="236"/>
-      <c r="I106" s="236"/>
-      <c r="J106" s="236"/>
+      <c r="B106" s="220"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="220"/>
+      <c r="E106" s="220"/>
+      <c r="F106" s="220"/>
+      <c r="G106" s="220"/>
+      <c r="H106" s="220"/>
+      <c r="I106" s="220"/>
+      <c r="J106" s="220"/>
     </row>
     <row r="107" spans="1:12" s="27" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="258"/>
-      <c r="B107" s="258"/>
-      <c r="C107" s="258"/>
-      <c r="D107" s="258"/>
-      <c r="E107" s="258"/>
-      <c r="F107" s="258"/>
-      <c r="G107" s="258"/>
-      <c r="H107" s="258"/>
-      <c r="I107" s="258"/>
-      <c r="J107" s="258"/>
+      <c r="A107" s="232"/>
+      <c r="B107" s="232"/>
+      <c r="C107" s="232"/>
+      <c r="D107" s="232"/>
+      <c r="E107" s="232"/>
+      <c r="F107" s="232"/>
+      <c r="G107" s="232"/>
+      <c r="H107" s="232"/>
+      <c r="I107" s="232"/>
+      <c r="J107" s="232"/>
     </row>
     <row r="108" spans="1:12" s="191" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="269" t="s">
+      <c r="A108" s="198" t="s">
         <v>436</v>
       </c>
-      <c r="B108" s="269"/>
-      <c r="C108" s="269"/>
-      <c r="D108" s="269"/>
-      <c r="E108" s="269"/>
-      <c r="F108" s="270"/>
-      <c r="G108" s="270"/>
-      <c r="H108" s="270"/>
-      <c r="I108" s="270"/>
-      <c r="J108" s="270"/>
+      <c r="B108" s="198"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="198"/>
+      <c r="E108" s="198"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="199"/>
+      <c r="H108" s="199"/>
+      <c r="I108" s="199"/>
+      <c r="J108" s="199"/>
       <c r="K108" s="190"/>
       <c r="L108" s="190"/>
     </row>
@@ -5461,10 +5457,10 @@
       </c>
       <c r="D109" s="195"/>
       <c r="E109" s="195"/>
-      <c r="F109" s="271" t="s">
+      <c r="F109" s="200" t="s">
         <v>360</v>
       </c>
-      <c r="G109" s="271"/>
+      <c r="G109" s="200"/>
       <c r="H109" s="195"/>
       <c r="I109" s="195"/>
       <c r="J109" s="195"/>
@@ -5472,13 +5468,13 @@
       <c r="L109" s="196"/>
     </row>
     <row r="110" spans="1:12" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="236" t="s">
+      <c r="A110" s="220" t="s">
         <v>447</v>
       </c>
-      <c r="B110" s="236"/>
-      <c r="C110" s="209"/>
-      <c r="D110" s="209"/>
-      <c r="E110" s="209"/>
+      <c r="B110" s="220"/>
+      <c r="C110" s="201"/>
+      <c r="D110" s="201"/>
+      <c r="E110" s="201"/>
       <c r="G110" s="187"/>
       <c r="H110" s="187"/>
       <c r="I110" s="187"/>
@@ -5504,12 +5500,12 @@
       <c r="C112" s="64"/>
       <c r="D112" s="65"/>
       <c r="E112" s="65"/>
-      <c r="G112" s="224" t="s">
+      <c r="G112" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="H112" s="224"/>
-      <c r="I112" s="224"/>
-      <c r="J112" s="224"/>
+      <c r="H112" s="218"/>
+      <c r="I112" s="218"/>
+      <c r="J112" s="218"/>
     </row>
     <row r="113" spans="1:10" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="60" t="s">
@@ -5868,6 +5864,160 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="178">
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="A107:J107"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="F108:J108"/>
     <mergeCell ref="F109:G109"/>
@@ -5892,160 +6042,6 @@
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
   </mergeCells>
   <dataValidations count="30">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J72 D59 J56 D57 D22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6276,34 +6272,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6326,10 +6322,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -6355,77 +6351,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -6758,77 +6754,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -6848,10 +6844,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="304" t="s">
+      <c r="H33" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="304"/>
+      <c r="I33" s="301"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -6877,77 +6873,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C35" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="310" t="s">
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="297"/>
-      <c r="J35" s="295" t="s">
+      <c r="I35" s="283"/>
+      <c r="J35" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="297"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="283"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="311"/>
-      <c r="C36" s="289" t="s">
+      <c r="A36" s="292"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="298"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="285"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="287" t="s">
+      <c r="A37" s="292"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="315" t="s">
+      <c r="E37" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="315"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="303"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="287"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="288"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="312"/>
+      <c r="G38" s="281"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -7280,76 +7276,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="292"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="294"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="315"/>
+      <c r="H55" s="315"/>
+      <c r="I55" s="315"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="316"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="305" t="s">
+      <c r="A57" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="305"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="306"/>
-      <c r="E57" s="306"/>
-      <c r="F57" s="306"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="279"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="305"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -7357,15 +7353,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
+      <c r="D61" s="304"/>
+      <c r="E61" s="304"/>
+      <c r="F61" s="304"/>
+      <c r="G61" s="304"/>
       <c r="H61" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
+      <c r="I61" s="312"/>
+      <c r="J61" s="312"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,16 +7460,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="J5:L7"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C58:E58"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="H33:I33"/>
@@ -7490,27 +7497,16 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="J35:L37"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="J5:L7"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7576,34 +7572,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -7626,10 +7622,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -7655,77 +7651,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -8058,77 +8054,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -8148,10 +8144,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="304" t="s">
+      <c r="H33" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="304"/>
+      <c r="I33" s="301"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -8177,77 +8173,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C35" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="310" t="s">
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="297"/>
-      <c r="J35" s="295" t="s">
+      <c r="I35" s="283"/>
+      <c r="J35" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="297"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="283"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="311"/>
-      <c r="C36" s="289" t="s">
+      <c r="A36" s="292"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="298"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="285"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="287" t="s">
+      <c r="A37" s="292"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="315" t="s">
+      <c r="E37" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="315"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="303"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="287"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="288"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="312"/>
+      <c r="G38" s="281"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -8580,76 +8576,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="292"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="294"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="315"/>
+      <c r="H55" s="315"/>
+      <c r="I55" s="315"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="316"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="305" t="s">
+      <c r="A57" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="305"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="306"/>
-      <c r="E57" s="306"/>
-      <c r="F57" s="306"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="279"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="305"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -8657,15 +8653,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
+      <c r="D61" s="304"/>
+      <c r="E61" s="304"/>
+      <c r="F61" s="304"/>
+      <c r="G61" s="304"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
+      <c r="I61" s="312"/>
+      <c r="J61" s="312"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8764,37 +8760,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -8811,6 +8776,37 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29 C59:J59" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -8876,34 +8872,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -8926,10 +8922,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -8955,77 +8951,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -9358,77 +9354,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -9448,10 +9444,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="304" t="s">
+      <c r="H33" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="304"/>
+      <c r="I33" s="301"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -9477,77 +9473,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C35" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="310" t="s">
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="297"/>
-      <c r="J35" s="295" t="s">
+      <c r="I35" s="283"/>
+      <c r="J35" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="297"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="283"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="311"/>
-      <c r="C36" s="289" t="s">
+      <c r="A36" s="292"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="298"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="285"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="287" t="s">
+      <c r="A37" s="292"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="315" t="s">
+      <c r="E37" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="315"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="303"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="287"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="288"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="312"/>
+      <c r="G38" s="281"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -9880,76 +9876,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="292"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="294"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="315"/>
+      <c r="H55" s="315"/>
+      <c r="I55" s="315"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="316"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="305" t="s">
+      <c r="A57" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="305"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="306"/>
-      <c r="E57" s="306"/>
-      <c r="F57" s="306"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="279"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="305"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -9957,15 +9953,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
+      <c r="D61" s="304"/>
+      <c r="E61" s="304"/>
+      <c r="F61" s="304"/>
+      <c r="G61" s="304"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
+      <c r="I61" s="312"/>
+      <c r="J61" s="312"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10064,37 +10060,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -10111,6 +10076,37 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -10176,34 +10172,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -10226,10 +10222,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -10255,77 +10251,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -10658,77 +10654,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -10748,10 +10744,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="304" t="s">
+      <c r="H33" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="304"/>
+      <c r="I33" s="301"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -10777,77 +10773,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C35" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="310" t="s">
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="297"/>
-      <c r="J35" s="295" t="s">
+      <c r="I35" s="283"/>
+      <c r="J35" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="297"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="283"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="311"/>
-      <c r="C36" s="289" t="s">
+      <c r="A36" s="292"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="298"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="285"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="287" t="s">
+      <c r="A37" s="292"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="315" t="s">
+      <c r="E37" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="315"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="303"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="287"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="288"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="312"/>
+      <c r="G38" s="281"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -11180,76 +11176,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="292"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="294"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="315"/>
+      <c r="H55" s="315"/>
+      <c r="I55" s="315"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="316"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="305" t="s">
+      <c r="A57" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="305"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="306"/>
-      <c r="E57" s="306"/>
-      <c r="F57" s="306"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="279"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="305"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -11257,15 +11253,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
+      <c r="D61" s="304"/>
+      <c r="E61" s="304"/>
+      <c r="F61" s="304"/>
+      <c r="G61" s="304"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
+      <c r="I61" s="312"/>
+      <c r="J61" s="312"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11364,37 +11360,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -11411,6 +11376,37 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29 C59:J59" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -11476,34 +11472,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -11526,10 +11522,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -11555,77 +11551,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -11958,77 +11954,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -12048,10 +12044,10 @@
       <c r="G33" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="304" t="s">
+      <c r="H33" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="304"/>
+      <c r="I33" s="301"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -12077,77 +12073,77 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C35" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="310" t="s">
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="297"/>
-      <c r="J35" s="295" t="s">
+      <c r="I35" s="283"/>
+      <c r="J35" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="297"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="283"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="311"/>
-      <c r="C36" s="289" t="s">
+      <c r="A36" s="292"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="298"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="285"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="287" t="s">
+      <c r="A37" s="292"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="315" t="s">
+      <c r="E37" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="315"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="303"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="310"/>
+      <c r="L37" s="287"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="288"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="312"/>
+      <c r="G38" s="281"/>
       <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
@@ -12480,76 +12476,76 @@
       <c r="B55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="292"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="294"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="315"/>
+      <c r="H55" s="315"/>
+      <c r="I55" s="315"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="316"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="305" t="s">
+      <c r="A57" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="305"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="306"/>
-      <c r="E57" s="306"/>
-      <c r="F57" s="306"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="279"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
+      <c r="I60" s="305"/>
+      <c r="J60" s="305"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
@@ -12557,15 +12553,15 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
+      <c r="D61" s="304"/>
+      <c r="E61" s="304"/>
+      <c r="F61" s="304"/>
+      <c r="G61" s="304"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
+      <c r="I61" s="312"/>
+      <c r="J61" s="312"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12664,37 +12660,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -12711,6 +12676,37 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I9:I21 I54 I39:I51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -12776,34 +12772,34 @@
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="278">
+      <c r="F1" s="311">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="311"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="278">
+      <c r="J1" s="311">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="313" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -12826,10 +12822,10 @@
       <c r="G3" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -12855,77 +12851,77 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="310" t="s">
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="283"/>
+      <c r="J5" s="282" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="283"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="308"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="289" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="289" t="s">
+      <c r="D6" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="300"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="287" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="315"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="287"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="309"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="288"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="297"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="312"/>
+      <c r="G8" s="281"/>
       <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
@@ -13258,77 +13254,77 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="316"/>
     </row>
     <row r="26" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="307"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="130" t="s">
@@ -13412,14 +13408,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="F1:G1"/>
@@ -13436,6 +13424,14 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:J29" xr:uid="{00000000-0002-0000-0600-000000000000}">
